--- a/app/data/static/samples/inputs/by_department/ricotta/План по варкам рикотта.xlsx
+++ b/app/data/static/samples/inputs/by_department/ricotta/План по варкам рикотта.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenijkadaner/Yandex.Disk.localized/master/code/git/2020.10-umalat/umalat/app/data/static/samples/inputs/ricotta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marklidenberg/Yandex.Disk.localized/master/code/git/2020.10-umalat/umalat/app/data/static/samples/inputs/by_department/ricotta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B157E815-11CD-0C43-AF40-1FF47C959B0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E8243A-237F-B54E-BF85-4CE1D3B83849}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2331,6 +2331,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2341,12 +2347,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -45505,7 +45505,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -45534,44 +45534,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="37" t="s">
         <v>668</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="38" t="s">
         <v>643</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="38" t="s">
         <v>669</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="38" t="s">
         <v>670</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="38" t="s">
         <v>671</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="41" t="s">
         <v>672</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="41" t="s">
         <v>673</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="42" t="s">
         <v>674</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="42" t="s">
         <v>675</v>
       </c>
       <c r="J1" s="19"/>
       <c r="L1" s="19"/>
       <c r="M1" s="19"/>
       <c r="N1" s="19"/>
-      <c r="Q1" s="38" t="s">
+      <c r="Q1" s="40" t="s">
         <v>676</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="S1" s="40" t="s">
         <v>678</v>
       </c>
       <c r="T1" s="20" t="s">
@@ -45585,15 +45585,15 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
       <c r="J2" s="19" t="s">
         <v>682</v>
       </c>
@@ -45606,9 +45606,9 @@
       <c r="N2" s="19">
         <v>0</v>
       </c>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="38"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="40"/>
       <c r="T2" s="23">
         <v>58320</v>
       </c>
@@ -54589,11 +54589,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="F1:F2"/>
@@ -54601,6 +54596,11 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B14 B17:B121">
     <cfRule type="expression" dxfId="72" priority="24">
